--- a/script1.xlsx
+++ b/script1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>UID</t>
   </si>
@@ -41,18 +41,6 @@
   </si>
   <si>
     <t>Reagent</t>
-  </si>
-  <si>
-    <t>Modified BBa_promoter</t>
-  </si>
-  <si>
-    <t>Modified BBa_rbs</t>
-  </si>
-  <si>
-    <t>Modified BBa_CDSrestrict</t>
-  </si>
-  <si>
-    <t>Modified BBa_term</t>
   </si>
 </sst>
 </file>
@@ -384,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,11 +407,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
